--- a/data/datos23072024/test/Copia de experimento1.xlsx
+++ b/data/datos23072024/test/Copia de experimento1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\candidatos_proyectof\tesis_tec\dataReactor\tesis_GUI_sqlite\tesis_pyqt_sqlite\data\datos23072024\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70DF8D75-D912-437D-A706-0BB866B96C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36D19E-3D5B-4F1C-9ECE-01FB554F5B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Copia de experimento1" sheetId="1" r:id="rId1"/>
+    <sheet name="Copia de experimento1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Copia de experimento1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="22">
   <si>
     <t>tiempo</t>
   </si>
@@ -60,11 +61,38 @@
   <si>
     <t>A</t>
   </si>
+  <si>
+    <t>L0-LC</t>
+  </si>
+  <si>
+    <t>Lt-Lc</t>
+  </si>
+  <si>
+    <t>A(t)=L0​−Lc​+A0​(Lt​−Lc​)tA0​(Lt​−Lc​)​</t>
+  </si>
+  <si>
+    <t>usode</t>
+  </si>
+  <si>
+    <t>otra_p</t>
+  </si>
+  <si>
+    <t>no otra_ajustada</t>
+  </si>
+  <si>
+    <t>L0-Lt</t>
+  </si>
+  <si>
+    <t>Lt-Lc nota LC punto min</t>
+  </si>
+  <si>
+    <t>A0*t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,11 +926,834 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94767E7-BABD-46C7-8C60-2FF1A4A4C35D}">
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D28"/>
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>31.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <f>$C$2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>C2-$C$14</f>
+        <v>22.86</v>
+      </c>
+      <c r="M2">
+        <f>$B$2*A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>12.35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f>$C$2-C3</f>
+        <v>19.350000000000001</v>
+      </c>
+      <c r="L3">
+        <f>C3-$C$14</f>
+        <v>3.51</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M14" si="0">$B$2*A3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>12.21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f>$C$2-C4</f>
+        <v>19.489999999999998</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L14" si="1">C4-$C$14</f>
+        <v>3.370000000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>11.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f>$C$2-C5</f>
+        <v>20.45</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>2.41</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>240</v>
+      </c>
+      <c r="C6">
+        <v>10.53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f>$C$2-C6</f>
+        <v>21.17</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1.6899999999999995</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>10.11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f>$C$2-C7</f>
+        <v>21.59</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>1.2699999999999996</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>420</v>
+      </c>
+      <c r="C8">
+        <v>9.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f>$C$2-C8</f>
+        <v>21.95</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>540</v>
+      </c>
+      <c r="C9">
+        <v>9.34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <f>$C$2-C9</f>
+        <v>22.36</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>660</v>
+      </c>
+      <c r="C10">
+        <v>9.31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <f>$C$2-C10</f>
+        <v>22.39</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>780</v>
+      </c>
+      <c r="C11">
+        <v>9.15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f>$C$2-C11</f>
+        <v>22.549999999999997</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>900</v>
+      </c>
+      <c r="C12">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <f>$C$2-C12</f>
+        <v>22.66</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1020</v>
+      </c>
+      <c r="C13">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f>$C$2-C13</f>
+        <v>22.74</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000099</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1140</v>
+      </c>
+      <c r="C14">
+        <v>8.84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <f>$C$2-C14</f>
+        <v>22.86</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>47.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>13.75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>12.21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <v>11.62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>10.95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>300</v>
+      </c>
+      <c r="C20">
+        <v>10.8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>420</v>
+      </c>
+      <c r="C21">
+        <v>10.55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>540</v>
+      </c>
+      <c r="C22">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>660</v>
+      </c>
+      <c r="C23">
+        <v>9.92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>780</v>
+      </c>
+      <c r="C24">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>900</v>
+      </c>
+      <c r="C25">
+        <v>9.68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1020</v>
+      </c>
+      <c r="C26">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1140</v>
+      </c>
+      <c r="C27">
+        <v>9.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +1765,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,11 +1793,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
       <c r="C2">
         <v>31.7</v>
       </c>
@@ -965,11 +1834,26 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>$C$2-$C$14</f>
+        <v>22.86</v>
+      </c>
+      <c r="L2">
+        <f>C2-$C$14</f>
+        <v>22.86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
+      <c r="B3">
+        <f>$B$2*L3/(K3+$B$2*(L3)*A3)</f>
+        <v>1.36938202247191E-2</v>
+      </c>
       <c r="C3">
         <v>12.35</v>
       </c>
@@ -988,11 +1872,23 @@
       <c r="I3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K14" si="0">$C$2-$C$14</f>
+        <v>22.86</v>
+      </c>
+      <c r="L3">
+        <f>C3-$C$14</f>
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>120</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B13" si="1">$B$2*L4/(K4+$B$2*(L4)*A4)</f>
+        <v>7.4868923842530879E-3</v>
+      </c>
       <c r="C4">
         <v>12.21</v>
       </c>
@@ -1011,11 +1907,23 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L4">
+        <f>C4-$C$14</f>
+        <v>3.370000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>180</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>5.0258591925258595E-3</v>
+      </c>
       <c r="C5">
         <v>11.25</v>
       </c>
@@ -1034,11 +1942,23 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L12" si="2">C5-$C$14</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>240</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>3.7445714792165197E-3</v>
+      </c>
       <c r="C6">
         <v>10.53</v>
       </c>
@@ -1057,11 +1977,23 @@
       <c r="I6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L6">
+        <f>C6-$C$14</f>
+        <v>1.6899999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2.9761904761904756E-3</v>
+      </c>
       <c r="C7">
         <v>10.11</v>
       </c>
@@ -1080,11 +2012,23 @@
       <c r="I7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.2699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>420</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2.1265657132174239E-3</v>
+      </c>
       <c r="C8">
         <v>9.75</v>
       </c>
@@ -1103,11 +2047,23 @@
       <c r="I8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.91000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>540</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.5836817433168629E-3</v>
+      </c>
       <c r="C9">
         <v>9.34</v>
       </c>
@@ -1126,11 +2082,23 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L9">
+        <f>C9-$C$14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>660</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1.3205214654978649E-3</v>
+      </c>
       <c r="C10">
         <v>9.31</v>
       </c>
@@ -1149,11 +2117,23 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>780</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.0781858653311077E-3</v>
+      </c>
       <c r="C11">
         <v>9.15</v>
       </c>
@@ -1172,11 +2152,23 @@
       <c r="I11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.3100000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>900</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>8.8605351763246427E-4</v>
+      </c>
       <c r="C12">
         <v>9.0399999999999991</v>
       </c>
@@ -1195,11 +2187,23 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1020</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>7.1377587437544763E-4</v>
+      </c>
       <c r="C13">
         <v>8.9600000000000009</v>
       </c>
@@ -1218,8 +2222,16 @@
       <c r="I13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L13">
+        <f>C13-$C$14</f>
+        <v>0.12000000000000099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1140</v>
       </c>
@@ -1241,11 +2253,22 @@
       <c r="I14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>22.86</v>
+      </c>
+      <c r="L14">
+        <f>C14-$C$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
       <c r="C15">
         <v>47.2</v>
       </c>
@@ -1264,11 +2287,29 @@
       <c r="I15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f>$C$15-$C$27</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L15">
+        <f>C15-$C$27</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="P15">
+        <v>47.2</v>
+      </c>
+      <c r="Q15">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
+      <c r="B16">
+        <f>$B$2*L16/(K16+$B$2*(L16)*A16)</f>
+        <v>1.2863196125907991E-2</v>
+      </c>
       <c r="C16">
         <v>13.75</v>
       </c>
@@ -1287,11 +2328,29 @@
       <c r="I16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" ref="K16:K27" si="3">$C$15-$C$27</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L16">
+        <f>C16-$C$27</f>
+        <v>4.25</v>
+      </c>
+      <c r="P16">
+        <v>13.75</v>
+      </c>
+      <c r="Q16">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>120</v>
       </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B27" si="4">$B$2*L17/(K17+$B$2*(L17)*A17)</f>
+        <v>6.7648527209186217E-3</v>
+      </c>
       <c r="C17">
         <v>12.21</v>
       </c>
@@ -1310,11 +2369,29 @@
       <c r="I17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L27" si="5">C17-$C$27</f>
+        <v>2.7100000000000009</v>
+      </c>
+      <c r="P17">
+        <v>12.21</v>
+      </c>
+      <c r="Q17">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>180</v>
       </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>4.6389496717724283E-3</v>
+      </c>
       <c r="C18">
         <v>11.62</v>
       </c>
@@ -1333,11 +2410,29 @@
       <c r="I18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>2.1199999999999992</v>
+      </c>
+      <c r="P18">
+        <v>11.62</v>
+      </c>
+      <c r="Q18">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>240</v>
       </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>3.4246575342465747E-3</v>
+      </c>
       <c r="C19">
         <v>10.95</v>
       </c>
@@ -1356,11 +2451,29 @@
       <c r="I19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>1.4499999999999993</v>
+      </c>
+      <c r="P19">
+        <v>10.95</v>
+      </c>
+      <c r="Q19">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>300</v>
       </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>2.7932960893854749E-3</v>
+      </c>
       <c r="C20">
         <v>10.8</v>
       </c>
@@ -1379,11 +2492,29 @@
       <c r="I20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="P20">
+        <v>10.8</v>
+      </c>
+      <c r="Q20">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>420</v>
       </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>2.0333075135553834E-3</v>
+      </c>
       <c r="C21">
         <v>10.55</v>
       </c>
@@ -1402,11 +2533,29 @@
       <c r="I21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="P21">
+        <v>10.55</v>
+      </c>
+      <c r="Q21">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>540</v>
       </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>1.4769065520945223E-3</v>
+      </c>
       <c r="C22">
         <v>10.050000000000001</v>
       </c>
@@ -1425,11 +2574,29 @@
       <c r="I22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="P22">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>660</v>
       </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>1.191151446398185E-3</v>
+      </c>
       <c r="C23">
         <v>9.92</v>
       </c>
@@ -1448,11 +2615,29 @@
       <c r="I23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L23">
+        <f>C23-$C$27</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="P23">
+        <v>9.92</v>
+      </c>
+      <c r="Q23">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>780</v>
       </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>8.779264214046834E-4</v>
+      </c>
       <c r="C24">
         <v>9.7100000000000009</v>
       </c>
@@ -1471,11 +2656,29 @@
       <c r="I24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="P24">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="Q24">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>900</v>
       </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>7.5821398483571991E-4</v>
+      </c>
       <c r="C25">
         <v>9.68</v>
       </c>
@@ -1494,13 +2697,31 @@
       <c r="I25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="P25">
+        <v>9.68</v>
+      </c>
+      <c r="Q25">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1020</v>
       </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>3.4423407917383341E-4</v>
+      </c>
       <c r="C26">
-        <v>9.84</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1517,13 +2738,31 @@
       <c r="I26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="P26">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="Q26">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1140</v>
       </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="C27">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1540,8 +2779,23 @@
       <c r="I27" t="s">
         <v>12</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>9.5</v>
+      </c>
+      <c r="Q27">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>